--- a/src/public/DatosFinancieros3.xlsx
+++ b/src/public/DatosFinancieros3.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcmendoza/Desktop/Apps/j4data/kratia/4jback/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E2BB48-C534-954C-9308-BB3F6971A021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64719693-04AC-024A-9F2A-2EE7C2F9330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico Valores Generales" sheetId="7" r:id="rId1"/>
@@ -73,14 +73,44 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Año en que permitieron el límite en 100% Es importante aclarar que el límite máximo del indicador de sostenibilidad, acorde
-con lo establecido por la Ley 358 de 1997 era del 80%, pero la Ley 2155 de 2021
-en su Artículo 30 modificó los límites de este indicador pasando de 80% a 100%
-el límite de Sostenibilidad.</t>
+          <t xml:space="preserve">Año en que permitieron el límite en 100% Es importante aclarar que el límite máximo del indicador de sostenibilidad, acorde
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">con lo establecido por la Ley 358 de 1997 era del 80%, pero la Ley 2155 de 2021
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">en su Artículo 30 modificó los límites de este indicador pasando de 80% a 100%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>el límite de Sostenibilidad.</t>
         </r>
       </text>
     </comment>
@@ -90,7 +120,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -105,7 +135,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -115,7 +145,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -129,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="163">
   <si>
     <t>POAI</t>
   </si>
@@ -616,6 +646,9 @@
   <si>
     <t>totales</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -626,7 +659,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,26 +681,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -712,6 +725,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1039,8 +1065,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1095,16 +1121,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1117,8 +1143,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1129,15 +1155,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="221">
+  <dxfs count="200">
     <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1146,22 +1169,28 @@
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -1720,72 +1749,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
@@ -3008,23 +2971,23 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$B$3:$B$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$B$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>350126</c:v>
+                  <c:v>111296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,23 +3121,23 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$C$3:$C$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$C$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>141778</c:v>
+                  <c:v>61981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,23 +3258,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$D$3:$D$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$D$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>511233</c:v>
+                  <c:v>148964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3432,23 +3395,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$E$3:$E$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$E$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>528809</c:v>
+                  <c:v>131169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,23 +3532,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$F$3:$F$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$F$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>666675</c:v>
+                  <c:v>309088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3706,23 +3669,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$G$3:$G$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$G$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>607600</c:v>
+                  <c:v>150579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,23 +3809,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$H$3:$H$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$H$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>391380</c:v>
+                  <c:v>171577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3986,23 +3949,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$I$3:$I$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$I$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>796436</c:v>
+                  <c:v>252353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4126,23 +4089,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$J$3:$J$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$J$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>802906</c:v>
+                  <c:v>257638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4266,23 +4229,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$K$3:$K$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$K$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>589141</c:v>
+                  <c:v>311963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4406,23 +4369,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$L$3:$L$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$L$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>383980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4546,23 +4509,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Valores Generales'!$A$3:$A$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Superávit primario</c:v>
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Valores Generales'!$M$3:$M$4</c:f>
+              <c:f>'Gráfico Valores Generales'!$M$3</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>661757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5357,8 +5320,8 @@
       <xdr:rowOff>39018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>713797</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>556205</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>138440</xdr:rowOff>
     </xdr:to>
@@ -7306,12 +7269,12 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tabla dinámica12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A1:M4" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:M3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="21">
         <item h="1" x="1"/>
-        <item h="1" x="5"/>
+        <item x="5"/>
         <item h="1" x="19"/>
         <item h="1" x="20"/>
         <item h="1" x="0"/>
@@ -7329,7 +7292,7 @@
         <item h="1" x="3"/>
         <item h="1" x="9"/>
         <item h="1" x="10"/>
-        <item x="11"/>
+        <item h="1" x="11"/>
         <item h="1" x="12"/>
       </items>
     </pivotField>
@@ -7346,16 +7309,8 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colFields count="1">
     <field x="-2"/>
@@ -7412,46 +7367,8 @@
     <dataField name="Suma de 2022" fld="11" baseField="0" baseItem="0"/>
     <dataField name="Suma de 2023" fld="12" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="11">
-    <format dxfId="220">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="3" selected="0">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="219">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="4" selected="0">
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="218">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="7" selected="0">
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-            <x v="13"/>
-            <x v="14"/>
-            <x v="15"/>
-            <x v="16"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="217">
+  <formats count="2">
+    <format dxfId="10">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -7460,65 +7377,8 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="2" selected="0">
-            <x v="19"/>
-            <x v="20"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="215">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="214">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="213">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="212">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="2" selected="0">
-            <x v="17"/>
-            <x v="18"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="211">
+    <format dxfId="11">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="210">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="11"/>
-          </reference>
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <chartFormats count="12">
@@ -8125,7 +7985,7 @@
     <dataField name="Suma de 2016" fld="6" baseField="1" baseItem="5"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="209">
+    <format dxfId="199">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8150,7 +8010,7 @@
     <tabular pivotCacheId="1">
       <items count="21">
         <i x="1"/>
-        <i x="5"/>
+        <i x="5" s="1"/>
         <i x="19"/>
         <i x="20"/>
         <i x="0"/>
@@ -8168,7 +8028,7 @@
         <i x="3"/>
         <i x="9"/>
         <i x="10"/>
-        <i x="11" s="1"/>
+        <i x="11"/>
         <i x="12"/>
       </items>
     </tabular>
@@ -8447,13 +8307,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H12" zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView showGridLines="0" zoomScale="137" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8463,9 +8323,6 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="B2" t="s">
         <v>131</v>
       </c>
@@ -8505,84 +8362,43 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B3" s="52">
-        <v>350126</v>
+        <v>111296</v>
       </c>
       <c r="C3" s="52">
-        <v>141778</v>
+        <v>61981</v>
       </c>
       <c r="D3" s="52">
-        <v>511233</v>
+        <v>148964</v>
       </c>
       <c r="E3" s="52">
-        <v>528809</v>
+        <v>131169</v>
       </c>
       <c r="F3" s="52">
-        <v>666675</v>
+        <v>309088</v>
       </c>
       <c r="G3" s="52">
-        <v>607600</v>
+        <v>150579</v>
       </c>
       <c r="H3" s="52">
-        <v>391380</v>
+        <v>171577</v>
       </c>
       <c r="I3" s="52">
-        <v>796436</v>
+        <v>252353</v>
       </c>
       <c r="J3" s="52">
-        <v>802906</v>
+        <v>257638</v>
       </c>
       <c r="K3" s="52">
-        <v>589141</v>
+        <v>311963</v>
       </c>
       <c r="L3" s="52">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="52">
-        <v>350126</v>
-      </c>
-      <c r="C4" s="52">
-        <v>141778</v>
-      </c>
-      <c r="D4" s="52">
-        <v>511233</v>
-      </c>
-      <c r="E4" s="52">
-        <v>528809</v>
-      </c>
-      <c r="F4" s="52">
-        <v>666675</v>
-      </c>
-      <c r="G4" s="52">
-        <v>607600</v>
-      </c>
-      <c r="H4" s="52">
-        <v>391380</v>
-      </c>
-      <c r="I4" s="52">
-        <v>796436</v>
-      </c>
-      <c r="J4" s="52">
-        <v>802906</v>
-      </c>
-      <c r="K4" s="52">
-        <v>589141</v>
-      </c>
-      <c r="L4" s="52">
-        <v>0</v>
-      </c>
-      <c r="M4" s="52">
-        <v>0</v>
+        <v>383980</v>
+      </c>
+      <c r="M3" s="52">
+        <v>661757</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.2">
@@ -8613,9 +8429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6F093B-565E-A34D-A87E-D78209EA6BE1}">
   <dimension ref="A1:R253"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9101,7 +8917,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
     <sortCondition ref="A1:A23"/>
   </sortState>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9110,7 +8926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76AAD5E-488D-2A47-8AA7-EB79A8D23865}">
   <dimension ref="A1:D253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+    <sheetView topLeftCell="A215" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B253"/>
     </sheetView>
   </sheetViews>
@@ -12672,7 +12488,7 @@
   <dimension ref="B1:Q48"/>
   <sheetViews>
     <sheetView zoomScale="127" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12680,8 +12496,8 @@
     <col min="4" max="4" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="6" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.2">
@@ -13189,7 +13005,7 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="N13" s="32">
-        <v>0.80099999999999993</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="O13" s="33" t="s">
         <v>21</v>
